--- a/HairSampleMother/DB and Documents/HairSample.xlsx
+++ b/HairSampleMother/DB and Documents/HairSample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="2" r:id="rId1"/>
@@ -1817,7 +1817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="V2" sqref="V2:V18"/>
     </sheetView>
   </sheetViews>
@@ -3018,7 +3018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1291"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G24"/>
     </sheetView>
   </sheetViews>
@@ -3305,11 +3305,11 @@
         <v>1</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G14" s="35" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('13','q11', '1. All','','1','q13');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('13','q11', '1. All','','1','END');</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="15" customFormat="1" ht="15">

--- a/HairSampleMother/DB and Documents/HairSample.xlsx
+++ b/HairSampleMother/DB and Documents/HairSample.xlsx
@@ -1818,7 +1818,7 @@
   <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:V18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2335,7 +2335,7 @@
         <v>96</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="R14" s="35" t="s">
         <v>32</v>
@@ -2349,7 +2349,7 @@
       <c r="U14" s="35"/>
       <c r="V14" s="35" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('13', 'q12','frmsinglechoice', 'tblMainQues','','12.Why Was Hair Sample Not Fully Collected?','','END','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('13', 'q12','frmsinglechoice', 'tblMainQues','','12.Why Was Hair Sample Not Fully Collected?','','q13','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="37" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="R15" s="35" t="s">
         <v>32</v>
@@ -2385,7 +2385,7 @@
       <c r="U15" s="35"/>
       <c r="V15" s="35" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('14', 'q12Other','frmtext', 'tblMainQues','','12.Other, please specify','','END','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('14', 'q12Other','frmtext', 'tblMainQues','','12.Other, please specify','','q13','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -3305,11 +3305,11 @@
         <v>1</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G14" s="35" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('13','q11', '1. All','','1','END');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('13','q11', '1. All','','1','q13');</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="15" customFormat="1" ht="15">
